--- a/20180607清查清单.xlsx
+++ b/20180607清查清单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="197">
   <si>
     <t>&lt;Andriod start&gt; book</t>
   </si>
@@ -604,6 +604,14 @@
   </si>
   <si>
     <t>芯片盒</t>
+  </si>
+  <si>
+    <t>华科实验室</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>mini monitor</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1603,13 +1611,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C35" sqref="A35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
   </cols>
@@ -1710,14 +1718,14 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
+      <c r="C8" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2034,13 +2042,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2081,13 +2089,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2280,13 +2288,13 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2305,13 +2313,13 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2330,13 +2338,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2355,13 +2363,13 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2502,13 +2510,13 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2552,13 +2560,13 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2574,13 +2582,13 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2751,24 +2759,24 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="6">
         <v>20170620</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="6" t="s">
         <v>23</v>
       </c>
     </row>
